--- a/documentation/students.xlsx
+++ b/documentation/students.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebastian.vega_pragm\Repositories\academic-friends-api\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E8146C-8325-4182-B080-487AEF94D73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6E5C81-201D-4570-94FB-D92D3CAD7D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,7 +380,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D2" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,8 +435,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{32D543EA-D70B-4EB5-988A-BD803D721712}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{12E19B96-C92B-4388-A634-76A328E3EDBA}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{12E19B96-C92B-4388-A634-76A328E3EDBA}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{32D543EA-D70B-4EB5-988A-BD803D721712}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
